--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed3/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.530799999999995</v>
+        <v>-7.480199999999999</v>
       </c>
     </row>
     <row r="5">
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.32640000000001</v>
+        <v>-22.30400000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.0872</v>
+        <v>-22.0207</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -592,12 +592,12 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.874499999999995</v>
+        <v>-7.157899999999993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.43039999999999</v>
+        <v>-21.4515</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.943999999999997</v>
+        <v>-5.854499999999996</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.434399999999997</v>
+        <v>-8.471399999999996</v>
       </c>
     </row>
     <row r="16">
@@ -676,12 +676,12 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.390699999999988</v>
+        <v>-8.222899999999992</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.0594</v>
+        <v>-22.032</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.7766</v>
+        <v>-21.8149</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.055700000000006</v>
+        <v>-7.066900000000008</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.285599999999999</v>
+        <v>-8.439700000000002</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.482199999999995</v>
+        <v>-8.735099999999999</v>
       </c>
     </row>
     <row r="29">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.759699999999994</v>
+        <v>-6.205999999999992</v>
       </c>
     </row>
     <row r="33">
@@ -947,7 +947,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.83829999999999</v>
+        <v>-19.98859999999998</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.587799999999998</v>
+        <v>-7.903100000000002</v>
       </c>
     </row>
     <row r="38">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.205099999999993</v>
+        <v>-8.272099999999993</v>
       </c>
     </row>
     <row r="42">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.938199999999999</v>
+        <v>-7.900599999999998</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.396899999999999</v>
+        <v>-8.237399999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.9541</v>
+        <v>-21.888</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.768300000000003</v>
+        <v>-7.842300000000002</v>
       </c>
     </row>
     <row r="66">
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.41919999999999</v>
+        <v>-21.39109999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.579399999999996</v>
+        <v>-8.414699999999995</v>
       </c>
     </row>
     <row r="74">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.98739999999999</v>
+        <v>-19.93249999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.66979999999997</v>
+        <v>-19.56209999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.00469999999999</v>
+        <v>-20.16819999999998</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.66810000000001</v>
+        <v>-19.44290000000001</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.26680000000001</v>
+        <v>-22.0885</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.70149999999999</v>
+        <v>-21.5415</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.11379999999999</v>
+        <v>-21.9913</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.584600000000002</v>
+        <v>-8.269500000000003</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.284599999999998</v>
+        <v>-8.183499999999999</v>
       </c>
     </row>
     <row r="86">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.224099999999996</v>
+        <v>-8.344899999999997</v>
       </c>
     </row>
     <row r="90">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.853199999999992</v>
+        <v>-6.479899999999991</v>
       </c>
     </row>
     <row r="94">
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.547900000000002</v>
+        <v>-7.579200000000003</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.896500000000001</v>
+        <v>-6.976400000000003</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.038500000000006</v>
+        <v>-8.194400000000007</v>
       </c>
     </row>
     <row r="100">
@@ -1843,7 +1843,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-20.83529999999999</v>
+        <v>-20.68799999999999</v>
       </c>
       <c r="B101" t="n">
         <v>8.42</v>
@@ -1852,12 +1852,12 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.2004</v>
+        <v>-8.253699999999995</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-19.31899999999998</v>
+        <v>-19.72579999999998</v>
       </c>
       <c r="B102" t="n">
         <v>9.130000000000001</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.390299999999998</v>
+        <v>-7.8728</v>
       </c>
     </row>
     <row r="103">
